--- a/rlbase-data/rlbase_catalog.xlsx
+++ b/rlbase-data/rlbase_catalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mille\Box Sync\Henry_Miller\Projects\RLoops_General\RMapDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675C9B20-1554-4519-8766-AE1BBB999969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9CA7D7A-2D73-437D-9FD2-15F36BD9C089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9717" uniqueCount="1799">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9718" uniqueCount="1798">
   <si>
     <t>NT2</t>
   </si>
@@ -5345,9 +5345,6 @@
   </si>
   <si>
     <t>PBRM1ko</t>
-  </si>
-  <si>
-    <t>m6A-DRIP</t>
   </si>
   <si>
     <t>ERX5698413</t>
@@ -6522,8 +6519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1424"/>
   <sheetViews>
-    <sheetView topLeftCell="A1201" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1219" sqref="D1219"/>
+    <sheetView topLeftCell="A939" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A957" sqref="A957"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25473,7 +25470,7 @@
         <v>2</v>
       </c>
       <c r="D683" s="1" t="s">
-        <v>1757</v>
+        <v>1617</v>
       </c>
       <c r="E683" s="1" t="s">
         <v>1615</v>
@@ -25500,7 +25497,7 @@
         <v>2</v>
       </c>
       <c r="D684" s="1" t="s">
-        <v>1757</v>
+        <v>1617</v>
       </c>
       <c r="E684" s="1" t="s">
         <v>1615</v>
@@ -25527,7 +25524,7 @@
         <v>10</v>
       </c>
       <c r="D685" s="1" t="s">
-        <v>1757</v>
+        <v>1617</v>
       </c>
       <c r="E685" s="1" t="s">
         <v>1615</v>
@@ -25554,7 +25551,7 @@
         <v>10</v>
       </c>
       <c r="D686" s="1" t="s">
-        <v>1757</v>
+        <v>1617</v>
       </c>
       <c r="E686" s="1" t="s">
         <v>1615</v>
@@ -32771,7 +32768,7 @@
         <v>2</v>
       </c>
       <c r="D957" t="s">
-        <v>1236</v>
+        <v>1150</v>
       </c>
       <c r="E957" s="1" t="s">
         <v>1557</v>
@@ -32794,11 +32791,9 @@
         <v>1237</v>
       </c>
       <c r="B958" s="1"/>
-      <c r="C958" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="C958" s="1"/>
       <c r="D958" t="s">
-        <v>994</v>
+        <v>1236</v>
       </c>
       <c r="E958" s="1" t="s">
         <v>1557</v>
@@ -34317,7 +34312,7 @@
         <v>1262</v>
       </c>
       <c r="C1018" s="1" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="D1018" t="s">
         <v>1288</v>
@@ -34343,7 +34338,7 @@
         <v>1263</v>
       </c>
       <c r="C1019" s="1" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="D1019" t="s">
         <v>1288</v>
@@ -34369,7 +34364,7 @@
         <v>1264</v>
       </c>
       <c r="C1020" s="1" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="D1020" t="s">
         <v>1288</v>
@@ -34395,7 +34390,7 @@
         <v>1265</v>
       </c>
       <c r="C1021" s="1" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="D1021" t="s">
         <v>1288</v>
@@ -34421,7 +34416,7 @@
         <v>1266</v>
       </c>
       <c r="C1022" s="1" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="D1022" t="s">
         <v>1288</v>
@@ -34447,7 +34442,7 @@
         <v>1267</v>
       </c>
       <c r="C1023" s="1" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="D1023" t="s">
         <v>1288</v>
@@ -34473,7 +34468,7 @@
         <v>1268</v>
       </c>
       <c r="C1024" s="1" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="D1024" t="s">
         <v>1288</v>
@@ -34499,7 +34494,7 @@
         <v>1269</v>
       </c>
       <c r="C1025" s="1" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="D1025" t="s">
         <v>1288</v>
@@ -39366,7 +39361,7 @@
       </c>
       <c r="B1217" s="1"/>
       <c r="C1217" s="1" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="D1217" t="s">
         <v>1159</v>
@@ -39447,7 +39442,7 @@
       </c>
       <c r="B1220" s="1"/>
       <c r="C1220" s="1" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="D1220" t="s">
         <v>1159</v>
@@ -39526,7 +39521,7 @@
         <v>1541</v>
       </c>
       <c r="C1223" s="1" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="D1223" t="s">
         <v>1159</v>
@@ -39630,7 +39625,7 @@
         <v>1545</v>
       </c>
       <c r="C1227" s="1" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="D1227" t="s">
         <v>1159</v>
@@ -41737,7 +41732,7 @@
     </row>
     <row r="1305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1305" s="8" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="B1305" s="8"/>
       <c r="C1305" s="1"/>
@@ -41745,16 +41740,16 @@
         <v>1236</v>
       </c>
       <c r="E1305" s="1" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="F1305" s="10" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="G1305" t="s">
+        <v>1775</v>
+      </c>
+      <c r="H1305" s="1" t="s">
         <v>1776</v>
-      </c>
-      <c r="H1305" s="1" t="s">
-        <v>1777</v>
       </c>
       <c r="I1305" s="8">
         <v>31968257</v>
@@ -41762,7 +41757,7 @@
     </row>
     <row r="1306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1306" s="8" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="B1306" s="8"/>
       <c r="C1306" s="1"/>
@@ -41770,16 +41765,16 @@
         <v>1236</v>
       </c>
       <c r="E1306" s="1" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="F1306" s="10" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="G1306" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="H1306" s="1" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="I1306" s="8">
         <v>31968257</v>
@@ -41787,7 +41782,7 @@
     </row>
     <row r="1307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1307" s="8" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="B1307" s="8"/>
       <c r="C1307" s="1"/>
@@ -41795,16 +41790,16 @@
         <v>1236</v>
       </c>
       <c r="E1307" s="1" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="F1307" s="10" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="G1307" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="H1307" s="1" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="I1307" s="8">
         <v>31968257</v>
@@ -41812,7 +41807,7 @@
     </row>
     <row r="1308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1308" s="8" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="B1308" s="8"/>
       <c r="C1308" s="1"/>
@@ -41820,16 +41815,16 @@
         <v>1236</v>
       </c>
       <c r="E1308" s="1" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="F1308" s="10" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="G1308" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="H1308" s="1" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="I1308" s="8">
         <v>31968257</v>
@@ -41837,7 +41832,7 @@
     </row>
     <row r="1309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1309" s="8" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="B1309" s="8"/>
       <c r="C1309" s="1"/>
@@ -41845,16 +41840,16 @@
         <v>1236</v>
       </c>
       <c r="E1309" s="1" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="F1309" s="10" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="G1309" t="s">
+        <v>1775</v>
+      </c>
+      <c r="H1309" s="1" t="s">
         <v>1776</v>
-      </c>
-      <c r="H1309" s="1" t="s">
-        <v>1777</v>
       </c>
       <c r="I1309" s="8">
         <v>31968257</v>
@@ -41862,7 +41857,7 @@
     </row>
     <row r="1310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1310" s="8" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="B1310" s="8"/>
       <c r="C1310" s="1"/>
@@ -41870,16 +41865,16 @@
         <v>1236</v>
       </c>
       <c r="E1310" s="1" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="F1310" s="10" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="G1310" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="H1310" s="1" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="I1310" s="8">
         <v>31968257</v>
@@ -41887,7 +41882,7 @@
     </row>
     <row r="1311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1311" s="8" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="B1311" s="8"/>
       <c r="C1311" s="1"/>
@@ -41895,16 +41890,16 @@
         <v>1236</v>
       </c>
       <c r="E1311" s="1" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="F1311" s="10" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="G1311" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="H1311" s="1" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="I1311" s="8">
         <v>31968257</v>
@@ -41912,7 +41907,7 @@
     </row>
     <row r="1312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1312" s="8" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="B1312" s="8"/>
       <c r="C1312" s="1"/>
@@ -41920,16 +41915,16 @@
         <v>1236</v>
       </c>
       <c r="E1312" s="1" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="F1312" s="10" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="G1312" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="H1312" s="1" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="I1312" s="8">
         <v>31968257</v>
@@ -41937,7 +41932,7 @@
     </row>
     <row r="1313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1313" s="8" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="B1313" s="8"/>
       <c r="C1313" s="1"/>
@@ -41945,16 +41940,16 @@
         <v>1236</v>
       </c>
       <c r="E1313" s="1" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="F1313" s="10" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="G1313" t="s">
+        <v>1775</v>
+      </c>
+      <c r="H1313" s="1" t="s">
         <v>1776</v>
-      </c>
-      <c r="H1313" s="1" t="s">
-        <v>1777</v>
       </c>
       <c r="I1313" s="8">
         <v>31968257</v>
@@ -41962,7 +41957,7 @@
     </row>
     <row r="1314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1314" s="8" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="B1314" s="8"/>
       <c r="C1314" s="1"/>
@@ -41970,16 +41965,16 @@
         <v>1236</v>
       </c>
       <c r="E1314" s="1" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="F1314" s="10" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="G1314" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="H1314" s="1" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="I1314" s="8">
         <v>31968257</v>
@@ -41987,7 +41982,7 @@
     </row>
     <row r="1315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1315" s="8" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="B1315" s="8"/>
       <c r="C1315" s="1"/>
@@ -41995,16 +41990,16 @@
         <v>1236</v>
       </c>
       <c r="E1315" s="1" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="F1315" s="10" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="G1315" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="H1315" s="1" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="I1315" s="8">
         <v>31968257</v>
@@ -42012,7 +42007,7 @@
     </row>
     <row r="1316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1316" s="8" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="B1316" s="8"/>
       <c r="C1316" s="1"/>
@@ -42020,16 +42015,16 @@
         <v>1236</v>
       </c>
       <c r="E1316" s="1" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="F1316" s="10" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="G1316" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="H1316" s="1" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="I1316" s="8">
         <v>31968257</v>
@@ -42037,7 +42032,7 @@
     </row>
     <row r="1317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1317" s="8" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="B1317" s="8"/>
       <c r="C1317" s="1" t="s">
@@ -42047,16 +42042,16 @@
         <v>994</v>
       </c>
       <c r="E1317" s="1" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="F1317" s="10" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="G1317" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="H1317" s="1" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="I1317" s="8">
         <v>31968257</v>
@@ -42064,10 +42059,10 @@
     </row>
     <row r="1318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1318" s="8" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="B1318" s="8" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="C1318" s="1" t="s">
         <v>2</v>
@@ -42076,16 +42071,16 @@
         <v>994</v>
       </c>
       <c r="E1318" s="1" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="F1318" s="10" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="G1318" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="H1318" s="1" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="I1318" s="8">
         <v>31968257</v>
@@ -42093,7 +42088,7 @@
     </row>
     <row r="1319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1319" s="8" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="B1319" s="8"/>
       <c r="C1319" s="1" t="s">
@@ -42103,16 +42098,16 @@
         <v>994</v>
       </c>
       <c r="E1319" s="1" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="F1319" s="10" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="G1319" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="H1319" s="1" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="I1319" s="8">
         <v>31968257</v>
@@ -42120,10 +42115,10 @@
     </row>
     <row r="1320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1320" s="8" t="s">
+        <v>1757</v>
+      </c>
+      <c r="B1320" s="8" t="s">
         <v>1758</v>
-      </c>
-      <c r="B1320" s="8" t="s">
-        <v>1759</v>
       </c>
       <c r="C1320" s="1" t="s">
         <v>2</v>
@@ -42132,16 +42127,16 @@
         <v>994</v>
       </c>
       <c r="E1320" s="1" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="F1320" s="10" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="G1320" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="H1320" s="1" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="I1320" s="8">
         <v>31968257</v>
@@ -42149,7 +42144,7 @@
     </row>
     <row r="1321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1321" s="8" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="B1321" s="8"/>
       <c r="C1321" s="1" t="s">
@@ -42159,7 +42154,7 @@
         <v>994</v>
       </c>
       <c r="E1321" s="1" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="F1321" t="s">
         <v>104</v>
@@ -43009,10 +43004,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E69E83AD-33E0-472E-9601-5BFF6B08EDAB}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43023,7 +43018,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1785</v>
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1235</v>
       </c>
     </row>
   </sheetData>
@@ -43050,7 +43055,7 @@
         <v>1167</v>
       </c>
       <c r="B1" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -43058,7 +43063,7 @@
         <v>891</v>
       </c>
       <c r="B2" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -43066,7 +43071,7 @@
         <v>892</v>
       </c>
       <c r="B3" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -43074,7 +43079,7 @@
         <v>893</v>
       </c>
       <c r="B4" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -43082,7 +43087,7 @@
         <v>894</v>
       </c>
       <c r="B5" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -43090,7 +43095,7 @@
         <v>1378</v>
       </c>
       <c r="B6" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -43098,7 +43103,7 @@
         <v>1379</v>
       </c>
       <c r="B7" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -43106,7 +43111,7 @@
         <v>1380</v>
       </c>
       <c r="B8" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -43114,7 +43119,7 @@
         <v>1381</v>
       </c>
       <c r="B9" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -43122,7 +43127,7 @@
         <v>1382</v>
       </c>
       <c r="B10" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -43130,7 +43135,7 @@
         <v>1383</v>
       </c>
       <c r="B11" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -43138,7 +43143,7 @@
         <v>1384</v>
       </c>
       <c r="B12" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -43146,7 +43151,7 @@
         <v>1385</v>
       </c>
       <c r="B13" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -43154,7 +43159,7 @@
         <v>1389</v>
       </c>
       <c r="B14" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -43162,7 +43167,7 @@
         <v>1390</v>
       </c>
       <c r="B15" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -43170,7 +43175,7 @@
         <v>1391</v>
       </c>
       <c r="B16" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
     </row>
   </sheetData>
@@ -43371,7 +43376,7 @@
         <v>1246</v>
       </c>
       <c r="B11" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
@@ -43388,7 +43393,7 @@
         <v>1246</v>
       </c>
       <c r="B12" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
@@ -43405,7 +43410,7 @@
         <v>1246</v>
       </c>
       <c r="B13" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
@@ -43422,7 +43427,7 @@
         <v>1246</v>
       </c>
       <c r="B14" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
@@ -43439,7 +43444,7 @@
         <v>1246</v>
       </c>
       <c r="B15" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
@@ -43456,7 +43461,7 @@
         <v>1246</v>
       </c>
       <c r="B16" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
@@ -43473,7 +43478,7 @@
         <v>1246</v>
       </c>
       <c r="B17" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
@@ -43490,7 +43495,7 @@
         <v>1246</v>
       </c>
       <c r="B18" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
@@ -43555,7 +43560,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="B22" t="s">
         <v>601</v>
@@ -43728,7 +43733,7 @@
         <v>1159</v>
       </c>
       <c r="B32" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="C32" t="b">
         <v>1</v>
@@ -43753,7 +43758,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44069,7 +44074,7 @@
         <v>1246</v>
       </c>
       <c r="C14" t="s">
-        <v>1290</v>
+        <v>1620</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
@@ -44092,7 +44097,7 @@
         <v>994</v>
       </c>
       <c r="C15" t="s">
-        <v>1290</v>
+        <v>1620</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>

--- a/rlbase-data/rlbase_catalog.xlsx
+++ b/rlbase-data/rlbase_catalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mille\Box Sync\Henry_Miller\Projects\RLoops_General\RMapDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9CA7D7A-2D73-437D-9FD2-15F36BD9C089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE308AA0-0988-4E07-B74D-FD5ED3BC3B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9718" uniqueCount="1798">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9716" uniqueCount="1798">
   <si>
     <t>NT2</t>
   </si>
@@ -43004,10 +43004,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E69E83AD-33E0-472E-9601-5BFF6B08EDAB}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43019,16 +43019,6 @@
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1784</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1237</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1235</v>
       </c>
     </row>
   </sheetData>

--- a/rlbase-data/rlbase_catalog.xlsx
+++ b/rlbase-data/rlbase_catalog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mille\DOCUME~1\MobaXterm\slash\RemoteFiles\27922936_5_0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mille\DOCUME~1\MobaXterm\slash\RemoteFiles\6296670_2_0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{659E06E2-42C5-4C6F-80BE-E013CBCD47F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C69C0D2-5431-4639-9835-C2FF2EB99360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="catalog" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10876" uniqueCount="1986">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10940" uniqueCount="1998">
   <si>
     <t>NT2</t>
   </si>
@@ -6032,6 +6032,42 @@
   </si>
   <si>
     <t>siRNH2A</t>
+  </si>
+  <si>
+    <t>GSM4300777</t>
+  </si>
+  <si>
+    <t>GSM4300778</t>
+  </si>
+  <si>
+    <t>GSM4300779</t>
+  </si>
+  <si>
+    <t>GSM4300780</t>
+  </si>
+  <si>
+    <t>GSM4300781</t>
+  </si>
+  <si>
+    <t>GSM4300782</t>
+  </si>
+  <si>
+    <t>GSM4300783</t>
+  </si>
+  <si>
+    <t>GSM4300784</t>
+  </si>
+  <si>
+    <t>GSM4300785</t>
+  </si>
+  <si>
+    <t>GSM4300786</t>
+  </si>
+  <si>
+    <t>B16-F10</t>
+  </si>
+  <si>
+    <t>Carm1</t>
   </si>
 </sst>
 </file>
@@ -7083,8 +7119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1545"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1464" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H1481" sqref="H1481"/>
+    <sheetView tabSelected="1" topLeftCell="A1470" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I1484" sqref="I1484"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47178,84 +47214,262 @@
       <c r="I1487" s="9"/>
     </row>
     <row r="1488" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1488" s="8"/>
+      <c r="A1488" s="8" t="s">
+        <v>1986</v>
+      </c>
       <c r="B1488" s="8"/>
       <c r="C1488" s="1"/>
-      <c r="E1488" s="1"/>
-      <c r="H1488" s="1"/>
-      <c r="I1488" s="9"/>
+      <c r="D1488" t="s">
+        <v>1236</v>
+      </c>
+      <c r="E1488" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="F1488" t="s">
+        <v>1996</v>
+      </c>
+      <c r="G1488" t="s">
+        <v>1997</v>
+      </c>
+      <c r="H1488" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1488" s="9">
+        <v>33707234</v>
+      </c>
     </row>
     <row r="1489" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1489" s="8"/>
+      <c r="A1489" s="8" t="s">
+        <v>1987</v>
+      </c>
       <c r="B1489" s="8"/>
       <c r="C1489" s="1"/>
-      <c r="E1489" s="1"/>
-      <c r="H1489" s="1"/>
-      <c r="I1489" s="9"/>
+      <c r="D1489" t="s">
+        <v>1236</v>
+      </c>
+      <c r="E1489" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="F1489" t="s">
+        <v>1996</v>
+      </c>
+      <c r="G1489" t="s">
+        <v>1997</v>
+      </c>
+      <c r="H1489" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1489" s="9">
+        <v>33707234</v>
+      </c>
     </row>
     <row r="1490" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1490" s="8"/>
+      <c r="A1490" s="8" t="s">
+        <v>1988</v>
+      </c>
       <c r="B1490" s="8"/>
       <c r="C1490" s="1"/>
-      <c r="E1490" s="1"/>
-      <c r="H1490" s="1"/>
-      <c r="I1490" s="9"/>
+      <c r="D1490" t="s">
+        <v>1236</v>
+      </c>
+      <c r="E1490" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="F1490" t="s">
+        <v>1996</v>
+      </c>
+      <c r="G1490" t="s">
+        <v>1997</v>
+      </c>
+      <c r="H1490" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1490" s="9">
+        <v>33707234</v>
+      </c>
     </row>
     <row r="1491" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1491" s="8"/>
+      <c r="A1491" s="8" t="s">
+        <v>1989</v>
+      </c>
       <c r="B1491" s="8"/>
       <c r="C1491" s="1"/>
-      <c r="E1491" s="1"/>
-      <c r="H1491" s="1"/>
-      <c r="I1491" s="9"/>
+      <c r="D1491" t="s">
+        <v>1236</v>
+      </c>
+      <c r="E1491" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="F1491" t="s">
+        <v>1996</v>
+      </c>
+      <c r="G1491" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1491" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1491" s="9">
+        <v>33707234</v>
+      </c>
     </row>
     <row r="1492" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1492" s="8"/>
+      <c r="A1492" s="8" t="s">
+        <v>1990</v>
+      </c>
       <c r="B1492" s="8"/>
       <c r="C1492" s="1"/>
-      <c r="E1492" s="1"/>
-      <c r="H1492" s="1"/>
-      <c r="I1492" s="9"/>
+      <c r="D1492" t="s">
+        <v>1236</v>
+      </c>
+      <c r="E1492" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="F1492" t="s">
+        <v>1996</v>
+      </c>
+      <c r="G1492" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1492" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1492" s="9">
+        <v>33707234</v>
+      </c>
     </row>
     <row r="1493" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1493" s="8"/>
+      <c r="A1493" s="8" t="s">
+        <v>1991</v>
+      </c>
       <c r="B1493" s="8"/>
       <c r="C1493" s="1"/>
-      <c r="E1493" s="1"/>
-      <c r="H1493" s="1"/>
-      <c r="I1493" s="9"/>
+      <c r="D1493" t="s">
+        <v>1236</v>
+      </c>
+      <c r="E1493" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="F1493" t="s">
+        <v>1996</v>
+      </c>
+      <c r="G1493" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1493" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1493" s="9">
+        <v>33707234</v>
+      </c>
     </row>
     <row r="1494" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1494" s="8"/>
+      <c r="A1494" s="8" t="s">
+        <v>1992</v>
+      </c>
       <c r="B1494" s="8"/>
-      <c r="C1494" s="1"/>
-      <c r="E1494" s="1"/>
-      <c r="H1494" s="1"/>
-      <c r="I1494" s="9"/>
+      <c r="C1494" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1494" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E1494" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="F1494" t="s">
+        <v>1996</v>
+      </c>
+      <c r="G1494" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1494" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1494" s="9">
+        <v>33707234</v>
+      </c>
     </row>
     <row r="1495" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1495" s="8"/>
+      <c r="A1495" s="8" t="s">
+        <v>1993</v>
+      </c>
       <c r="B1495" s="8"/>
-      <c r="C1495" s="1"/>
-      <c r="E1495" s="1"/>
-      <c r="H1495" s="1"/>
-      <c r="I1495" s="9"/>
+      <c r="C1495" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1495" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E1495" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="F1495" t="s">
+        <v>1996</v>
+      </c>
+      <c r="G1495" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1495" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1495" s="9">
+        <v>33707234</v>
+      </c>
     </row>
     <row r="1496" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1496" s="8"/>
+      <c r="A1496" s="8" t="s">
+        <v>1994</v>
+      </c>
       <c r="B1496" s="8"/>
-      <c r="C1496" s="1"/>
-      <c r="E1496" s="1"/>
-      <c r="H1496" s="1"/>
-      <c r="I1496" s="9"/>
+      <c r="C1496" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1496" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E1496" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="F1496" t="s">
+        <v>1996</v>
+      </c>
+      <c r="G1496" t="s">
+        <v>1997</v>
+      </c>
+      <c r="H1496" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1496" s="9">
+        <v>33707234</v>
+      </c>
     </row>
     <row r="1497" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1497" s="8"/>
+      <c r="A1497" s="8" t="s">
+        <v>1995</v>
+      </c>
       <c r="B1497" s="8"/>
-      <c r="C1497" s="1"/>
-      <c r="E1497" s="1"/>
-      <c r="H1497" s="1"/>
-      <c r="I1497" s="9"/>
+      <c r="C1497" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1497" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E1497" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="F1497" t="s">
+        <v>1996</v>
+      </c>
+      <c r="G1497" t="s">
+        <v>1997</v>
+      </c>
+      <c r="H1497" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1497" s="9">
+        <v>33707234</v>
+      </c>
     </row>
     <row r="1498" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1498" s="8"/>

--- a/rlbase-data/rlbase_catalog.xlsx
+++ b/rlbase-data/rlbase_catalog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mille\DOCUME~1\MobaXterm\slash\RemoteFiles\6296670_2_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16690D72-0486-420B-8665-E5B43850D0E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1AB9418-C4DF-49E5-AFCD-5B1EBC8418DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="catalog" sheetId="1" r:id="rId1"/>
@@ -7259,8 +7259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1565"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1503" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F1524" sqref="F1524"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
